--- a/CaracteristicasSocieconomicas-Guaranis.xlsx
+++ b/CaracteristicasSocieconomicas-Guaranis.xlsx
@@ -13,19 +13,20 @@
     <sheet state="visible" name="ABAN-INTRA-ESC-C" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="ABAN-INTRA-ESC-G" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="ABAN-INTRA-ESC-L" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="ABAN-INTRA-ESC-CV" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="qYhxZV3vh4ckUhlv5ZrTIast/GK/3VkG6CG1kgnPwcg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="kLfc4lqpJIUuZDkvD9eDCcouFMqfdEBTkxIRp/TQo7M="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="106">
   <si>
     <t>DEP_PROV_MUN</t>
   </si>
@@ -178,6 +179,9 @@
   </si>
   <si>
     <t>Lagunillas</t>
+  </si>
+  <si>
+    <t>Cuevo</t>
   </si>
   <si>
     <t>Dep_Prov_Mun</t>
@@ -347,7 +351,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -368,20 +372,19 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -405,14 +408,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFB4C6E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -421,8 +418,14 @@
         <bgColor rgb="FFD9E2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -501,8 +504,20 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF8EAADB"/>
+      </left>
       <top style="thin">
         <color rgb="FF8EAADB"/>
       </top>
@@ -511,62 +526,29 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF8EAADB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF8EAADB"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF8EAADB"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF8EAADB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8EAADB"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF8EAADB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8EAADB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8EAADB"/>
+        <color rgb="FF8EA9DB"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -583,22 +565,19 @@
     <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -607,30 +586,123 @@
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="13" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="11" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,7 +747,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="10">
+  <tableStyles count="11">
     <tableStyle count="3" pivot="0" name="POBLACION-SC-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -726,6 +798,11 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="3" pivot="0" name="ABAN-INTRA-ESC-CV-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
@@ -735,6 +812,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -803,8 +884,22 @@
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F21" displayName="Table_11" name="Table_11" id="11">
+  <tableColumns count="6">
+    <tableColumn name="Año" id="1"/>
+    <tableColumn name="Sexo" id="2"/>
+    <tableColumn name="Inicial" id="3"/>
+    <tableColumn name="Primaria" id="4"/>
+    <tableColumn name="Secundaria" id="5"/>
+    <tableColumn name="Total" id="6"/>
+  </tableColumns>
+  <tableStyleInfo name="ABAN-INTRA-ESC-CV-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F6" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F7" displayName="Table_2" name="Table_2" id="2">
   <tableColumns count="6">
     <tableColumn name="Dep_Prov_Mun" id="1"/>
     <tableColumn name="Castellano" id="2"/>
@@ -818,7 +913,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D6" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D7" displayName="Table_3" name="Table_3" id="3">
   <tableColumns count="4">
     <tableColumn name="Dep_Prov_Mun" id="1"/>
     <tableColumn name="Hombre" id="2"/>
@@ -830,7 +925,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F6" displayName="Table_4" name="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F7" displayName="Table_4" name="Table_4" id="4">
   <tableColumns count="6">
     <tableColumn name="Dep_Prov_Mun" id="1"/>
     <tableColumn name="Agua Potable Cañeria" id="2"/>
@@ -844,7 +939,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K6" displayName="Table_5" name="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K7" displayName="Table_5" name="Table_5" id="5">
   <tableColumns count="11">
     <tableColumn name="Dep_Prov_Mun" id="1"/>
     <tableColumn name="s/n" id="2"/>
@@ -877,7 +972,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J7" displayName="Table_7" name="Table_7" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J9" displayName="Table_7" name="Table_7" id="7">
   <tableColumns count="10">
     <tableColumn name="Dep_Prov_Mun" id="1"/>
     <tableColumn name="Sexo" id="2"/>
@@ -1428,106 +1523,106 @@
       <c r="J3" s="12">
         <v>34976.0</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>34902.0</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>34782.0</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>34632.0</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>34220.0</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>33587.0</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>33090.0</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="13">
         <v>32710.0</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>32417.0</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="13">
         <v>32217.0</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="13">
         <v>31995.0</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="13">
         <v>31792.0</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="13">
         <v>31562.0</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="13">
         <v>31293.0</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="13">
         <v>30977.0</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="13">
         <v>30876.0</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="13">
         <v>30811.0</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AA3" s="13">
         <v>30805.0</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AB3" s="13">
         <v>30779.0</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="13">
         <v>30691.0</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3" s="13">
         <v>30438.0</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="13">
         <v>29946.0</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="13">
         <v>29390.0</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="13">
         <v>140085.0</v>
       </c>
-      <c r="AH3" s="14">
+      <c r="AH3" s="13">
         <v>123458.0</v>
       </c>
-      <c r="AI3" s="14">
+      <c r="AI3" s="13">
         <v>103704.0</v>
       </c>
-      <c r="AJ3" s="14">
+      <c r="AJ3" s="13">
         <v>87014.0</v>
       </c>
-      <c r="AK3" s="14">
+      <c r="AK3" s="13">
         <v>71445.0</v>
       </c>
-      <c r="AL3" s="14">
+      <c r="AL3" s="13">
         <v>57911.0</v>
       </c>
-      <c r="AM3" s="14">
+      <c r="AM3" s="13">
         <v>47295.0</v>
       </c>
-      <c r="AN3" s="14">
+      <c r="AN3" s="13">
         <v>37955.0</v>
       </c>
-      <c r="AO3" s="14">
+      <c r="AO3" s="13">
         <v>29274.0</v>
       </c>
-      <c r="AP3" s="14">
+      <c r="AP3" s="13">
         <v>20800.0</v>
       </c>
-      <c r="AQ3" s="14">
+      <c r="AQ3" s="13">
         <v>25353.0</v>
       </c>
-      <c r="AR3" s="15">
+      <c r="AR3" s="14">
         <v>1727403.0</v>
       </c>
     </row>
@@ -1565,103 +1660,103 @@
       <c r="K4" s="7">
         <v>1738.0</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>1745.0</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>1758.0</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>1669.0</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <v>1624.0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <v>1587.0</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <v>1544.0</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <v>1570.0</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <v>1525.0</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <v>1481.0</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <v>1419.0</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <v>1342.0</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <v>1262.0</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <v>1181.0</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="15">
         <v>1132.0</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="15">
         <v>1105.0</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="15">
         <v>1095.0</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="15">
         <v>1096.0</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="15">
         <v>1095.0</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="15">
         <v>1090.0</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="15">
         <v>1052.0</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="15">
         <v>1004.0</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="15">
         <v>4948.0</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="15">
         <v>4461.0</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="15">
         <v>4054.0</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="15">
         <v>3569.0</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="15">
         <v>3075.0</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="15">
         <v>2467.0</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="15">
         <v>2224.0</v>
       </c>
-      <c r="AN4" s="16">
+      <c r="AN4" s="15">
         <v>1754.0</v>
       </c>
-      <c r="AO4" s="16">
+      <c r="AO4" s="15">
         <v>1406.0</v>
       </c>
-      <c r="AP4" s="16">
+      <c r="AP4" s="15">
         <v>968.0</v>
       </c>
-      <c r="AQ4" s="16">
+      <c r="AQ4" s="15">
         <v>844.0</v>
       </c>
-      <c r="AR4" s="17">
+      <c r="AR4" s="16">
         <v>72980.0</v>
       </c>
     </row>
@@ -1696,106 +1791,106 @@
       <c r="J5" s="12">
         <v>1582.0</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>1685.0</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>1700.0</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>1709.0</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>1603.0</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>1534.0</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>1473.0</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="13">
         <v>1403.0</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <v>1393.0</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="13">
         <v>1322.0</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="13">
         <v>1256.0</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="13">
         <v>1183.0</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="13">
         <v>1133.0</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="13">
         <v>1081.0</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="13">
         <v>1041.0</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="13">
         <v>1022.0</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="13">
         <v>1004.0</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AA5" s="13">
         <v>1001.0</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="13">
         <v>1003.0</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="13">
         <v>1000.0</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="13">
         <v>1009.0</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="13">
         <v>992.0</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="13">
         <v>937.0</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AG5" s="13">
         <v>4853.0</v>
       </c>
-      <c r="AH5" s="14">
+      <c r="AH5" s="13">
         <v>4466.0</v>
       </c>
-      <c r="AI5" s="14">
+      <c r="AI5" s="13">
         <v>3823.0</v>
       </c>
-      <c r="AJ5" s="14">
+      <c r="AJ5" s="13">
         <v>3477.0</v>
       </c>
-      <c r="AK5" s="14">
+      <c r="AK5" s="13">
         <v>2870.0</v>
       </c>
-      <c r="AL5" s="14">
+      <c r="AL5" s="13">
         <v>2478.0</v>
       </c>
-      <c r="AM5" s="14">
+      <c r="AM5" s="13">
         <v>2273.0</v>
       </c>
-      <c r="AN5" s="14">
+      <c r="AN5" s="13">
         <v>1819.0</v>
       </c>
-      <c r="AO5" s="14">
+      <c r="AO5" s="13">
         <v>1613.0</v>
       </c>
-      <c r="AP5" s="14">
+      <c r="AP5" s="13">
         <v>1213.0</v>
       </c>
-      <c r="AQ5" s="14">
+      <c r="AQ5" s="13">
         <v>1400.0</v>
       </c>
-      <c r="AR5" s="15">
+      <c r="AR5" s="14">
         <v>70149.0</v>
       </c>
     </row>
@@ -1806,130 +1901,130 @@
       <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>438.0</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>435.0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>427.0</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>418.0</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>411.0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>418.0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>427.0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>442.0</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>485.0</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>489.0</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <v>491.0</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <v>412.0</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <v>401.0</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <v>400.0</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <v>400.0</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="15">
         <v>421.0</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="15">
         <v>427.0</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <v>429.0</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="15">
         <v>424.0</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="15">
         <v>411.0</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="15">
         <v>389.0</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="15">
         <v>364.0</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="15">
         <v>345.0</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="15">
         <v>331.0</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="15">
         <v>322.0</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AB6" s="15">
         <v>316.0</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AC6" s="15">
         <v>310.0</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AD6" s="15">
         <v>306.0</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AE6" s="15">
         <v>293.0</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AF6" s="15">
         <v>289.0</v>
       </c>
-      <c r="AG6" s="16">
+      <c r="AG6" s="15">
         <v>1287.0</v>
       </c>
-      <c r="AH6" s="16">
+      <c r="AH6" s="15">
         <v>1206.0</v>
       </c>
-      <c r="AI6" s="16">
+      <c r="AI6" s="15">
         <v>1121.0</v>
       </c>
-      <c r="AJ6" s="16">
+      <c r="AJ6" s="15">
         <v>1036.0</v>
       </c>
-      <c r="AK6" s="16">
+      <c r="AK6" s="15">
         <v>911.0</v>
       </c>
-      <c r="AL6" s="16">
+      <c r="AL6" s="15">
         <v>805.0</v>
       </c>
-      <c r="AM6" s="16">
+      <c r="AM6" s="15">
         <v>708.0</v>
       </c>
-      <c r="AN6" s="16">
+      <c r="AN6" s="15">
         <v>600.0</v>
       </c>
-      <c r="AO6" s="16">
+      <c r="AO6" s="15">
         <v>479.0</v>
       </c>
-      <c r="AP6" s="16">
+      <c r="AP6" s="15">
         <v>371.0</v>
       </c>
-      <c r="AQ6" s="16">
+      <c r="AQ6" s="15">
         <v>329.0</v>
       </c>
-      <c r="AR6" s="17">
+      <c r="AR6" s="16">
         <v>20724.0</v>
       </c>
     </row>
@@ -1940,130 +2035,130 @@
       <c r="B7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>359.0</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>382.0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>394.0</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>396.0</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>404.0</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>413.0</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>417.0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>432.0</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="17">
         <v>467.0</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>476.0</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>485.0</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="13">
         <v>407.0</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <v>396.0</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>394.0</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="13">
         <v>390.0</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="13">
         <v>406.0</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="13">
         <v>406.0</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="13">
         <v>399.0</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="13">
         <v>390.0</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="13">
         <v>384.0</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="13">
         <v>374.0</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="13">
         <v>369.0</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="13">
         <v>364.0</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="13">
         <v>355.0</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA7" s="13">
         <v>348.0</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="13">
         <v>337.0</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="13">
         <v>329.0</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7" s="13">
         <v>322.0</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="13">
         <v>312.0</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="13">
         <v>295.0</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="13">
         <v>1530.0</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AH7" s="13">
         <v>1468.0</v>
       </c>
-      <c r="AI7" s="14">
+      <c r="AI7" s="13">
         <v>1317.0</v>
       </c>
-      <c r="AJ7" s="14">
+      <c r="AJ7" s="13">
         <v>1254.0</v>
       </c>
-      <c r="AK7" s="14">
+      <c r="AK7" s="13">
         <v>1097.0</v>
       </c>
-      <c r="AL7" s="14">
+      <c r="AL7" s="13">
         <v>914.0</v>
       </c>
-      <c r="AM7" s="14">
+      <c r="AM7" s="13">
         <v>839.0</v>
       </c>
-      <c r="AN7" s="14">
+      <c r="AN7" s="13">
         <v>684.0</v>
       </c>
-      <c r="AO7" s="14">
+      <c r="AO7" s="13">
         <v>585.0</v>
       </c>
-      <c r="AP7" s="14">
+      <c r="AP7" s="13">
         <v>455.0</v>
       </c>
-      <c r="AQ7" s="14">
+      <c r="AQ7" s="13">
         <v>570.0</v>
       </c>
-      <c r="AR7" s="15">
+      <c r="AR7" s="14">
         <v>22315.0</v>
       </c>
     </row>
@@ -2074,130 +2169,130 @@
       <c r="B8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>194.0</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>193.0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>193.0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>200.0</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>203.0</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>210.0</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>207.0</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>204.0</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>216.0</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>217.0</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>218.0</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <v>218.0</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>211.0</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <v>200.0</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="15">
         <v>191.0</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="15">
         <v>186.0</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="15">
         <v>171.0</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="15">
         <v>156.0</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="15">
         <v>138.0</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="15">
         <v>122.0</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="15">
         <v>113.0</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="15">
         <v>105.0</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="15">
         <v>104.0</v>
       </c>
-      <c r="Z8" s="16">
+      <c r="Z8" s="15">
         <v>103.0</v>
       </c>
-      <c r="AA8" s="16">
+      <c r="AA8" s="15">
         <v>103.0</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AB8" s="15">
         <v>106.0</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC8" s="15">
         <v>109.0</v>
       </c>
-      <c r="AD8" s="16">
+      <c r="AD8" s="15">
         <v>112.0</v>
       </c>
-      <c r="AE8" s="16">
+      <c r="AE8" s="15">
         <v>112.0</v>
       </c>
-      <c r="AF8" s="16">
+      <c r="AF8" s="15">
         <v>106.0</v>
       </c>
-      <c r="AG8" s="16">
+      <c r="AG8" s="15">
         <v>515.0</v>
       </c>
-      <c r="AH8" s="16">
+      <c r="AH8" s="15">
         <v>452.0</v>
       </c>
-      <c r="AI8" s="16">
+      <c r="AI8" s="15">
         <v>466.0</v>
       </c>
-      <c r="AJ8" s="16">
+      <c r="AJ8" s="15">
         <v>336.0</v>
       </c>
-      <c r="AK8" s="16">
+      <c r="AK8" s="15">
         <v>295.0</v>
       </c>
-      <c r="AL8" s="16">
+      <c r="AL8" s="15">
         <v>244.0</v>
       </c>
-      <c r="AM8" s="16">
+      <c r="AM8" s="15">
         <v>235.0</v>
       </c>
-      <c r="AN8" s="16">
+      <c r="AN8" s="15">
         <v>212.0</v>
       </c>
-      <c r="AO8" s="16">
+      <c r="AO8" s="15">
         <v>158.0</v>
       </c>
-      <c r="AP8" s="16">
+      <c r="AP8" s="15">
         <v>116.0</v>
       </c>
-      <c r="AQ8" s="16">
+      <c r="AQ8" s="15">
         <v>80.0</v>
       </c>
-      <c r="AR8" s="17">
+      <c r="AR8" s="16">
         <v>8030.0</v>
       </c>
     </row>
@@ -2208,130 +2303,130 @@
       <c r="B9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>199.0</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>189.0</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>190.0</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>193.0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>195.0</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>198.0</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>199.0</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>202.0</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="17">
         <v>216.0</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>219.0</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>219.0</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>215.0</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <v>206.0</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>194.0</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="13">
         <v>180.0</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="13">
         <v>173.0</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="13">
         <v>154.0</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="13">
         <v>142.0</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="13">
         <v>129.0</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="13">
         <v>120.0</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="13">
         <v>111.0</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="13">
         <v>103.0</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="13">
         <v>100.0</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="13">
         <v>97.0</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA9" s="13">
         <v>97.0</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB9" s="13">
         <v>100.0</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AC9" s="13">
         <v>102.0</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AD9" s="13">
         <v>105.0</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AE9" s="13">
         <v>103.0</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="13">
         <v>104.0</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AG9" s="13">
         <v>523.0</v>
       </c>
-      <c r="AH9" s="14">
+      <c r="AH9" s="13">
         <v>442.0</v>
       </c>
-      <c r="AI9" s="14">
+      <c r="AI9" s="13">
         <v>422.0</v>
       </c>
-      <c r="AJ9" s="14">
+      <c r="AJ9" s="13">
         <v>355.0</v>
       </c>
-      <c r="AK9" s="14">
+      <c r="AK9" s="13">
         <v>293.0</v>
       </c>
-      <c r="AL9" s="14">
+      <c r="AL9" s="13">
         <v>240.0</v>
       </c>
-      <c r="AM9" s="14">
+      <c r="AM9" s="13">
         <v>292.0</v>
       </c>
-      <c r="AN9" s="14">
+      <c r="AN9" s="13">
         <v>186.0</v>
       </c>
-      <c r="AO9" s="14">
+      <c r="AO9" s="13">
         <v>204.0</v>
       </c>
-      <c r="AP9" s="14">
+      <c r="AP9" s="13">
         <v>160.0</v>
       </c>
-      <c r="AQ9" s="14">
+      <c r="AQ9" s="13">
         <v>173.0</v>
       </c>
-      <c r="AR9" s="15">
+      <c r="AR9" s="14">
         <v>8044.0</v>
       </c>
     </row>
@@ -2342,130 +2437,130 @@
       <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>53.0</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>68.0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>70.0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>72.0</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>74.0</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>78.0</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>77.0</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>78.0</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>82.0</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>81.0</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>83.0</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>83.0</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>81.0</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="15">
         <v>78.0</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="15">
         <v>73.0</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="15">
         <v>70.0</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="15">
         <v>64.0</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="15">
         <v>60.0</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="15">
         <v>57.0</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="15">
         <v>54.0</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="15">
         <v>54.0</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="15">
         <v>52.0</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="15">
         <v>52.0</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="15">
         <v>53.0</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AA10" s="15">
         <v>53.0</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AB10" s="15">
         <v>53.0</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AC10" s="15">
         <v>53.0</v>
       </c>
-      <c r="AD10" s="16">
+      <c r="AD10" s="15">
         <v>51.0</v>
       </c>
-      <c r="AE10" s="16">
+      <c r="AE10" s="15">
         <v>51.0</v>
       </c>
-      <c r="AF10" s="16">
+      <c r="AF10" s="15">
         <v>46.0</v>
       </c>
-      <c r="AG10" s="16">
+      <c r="AG10" s="15">
         <v>269.0</v>
       </c>
-      <c r="AH10" s="16">
+      <c r="AH10" s="15">
         <v>231.0</v>
       </c>
-      <c r="AI10" s="16">
+      <c r="AI10" s="15">
         <v>232.0</v>
       </c>
-      <c r="AJ10" s="16">
+      <c r="AJ10" s="15">
         <v>205.0</v>
       </c>
-      <c r="AK10" s="16">
+      <c r="AK10" s="15">
         <v>165.0</v>
       </c>
-      <c r="AL10" s="16">
+      <c r="AL10" s="15">
         <v>138.0</v>
       </c>
-      <c r="AM10" s="16">
+      <c r="AM10" s="15">
         <v>101.0</v>
       </c>
-      <c r="AN10" s="16">
+      <c r="AN10" s="15">
         <v>109.0</v>
       </c>
-      <c r="AO10" s="16">
+      <c r="AO10" s="15">
         <v>89.0</v>
       </c>
-      <c r="AP10" s="16">
+      <c r="AP10" s="15">
         <v>70.0</v>
       </c>
-      <c r="AQ10" s="16">
+      <c r="AQ10" s="15">
         <v>46.0</v>
       </c>
-      <c r="AR10" s="17">
+      <c r="AR10" s="16">
         <v>3609.0</v>
       </c>
     </row>
@@ -2476,135 +2571,401 @@
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>65.0</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>64.0</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>66.0</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>66.0</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>67.0</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>68.0</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>69.0</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <v>72.0</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="17">
         <v>78.0</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>79.0</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>79.0</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>75.0</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <v>70.0</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <v>66.0</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="13">
         <v>62.0</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="13">
         <v>59.0</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="13">
         <v>54.0</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="13">
         <v>51.0</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="13">
         <v>46.0</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="13">
         <v>43.0</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="13">
         <v>41.0</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="13">
         <v>38.0</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="13">
         <v>38.0</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="13">
         <v>37.0</v>
       </c>
-      <c r="AA11" s="14">
+      <c r="AA11" s="13">
         <v>37.0</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AB11" s="13">
         <v>40.0</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AC11" s="13">
         <v>39.0</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AD11" s="13">
         <v>40.0</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AE11" s="13">
         <v>38.0</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="13">
         <v>36.0</v>
       </c>
-      <c r="AG11" s="14">
+      <c r="AG11" s="13">
         <v>191.0</v>
       </c>
-      <c r="AH11" s="14">
+      <c r="AH11" s="13">
         <v>182.0</v>
       </c>
-      <c r="AI11" s="14">
+      <c r="AI11" s="13">
         <v>202.0</v>
       </c>
-      <c r="AJ11" s="14">
+      <c r="AJ11" s="13">
         <v>138.0</v>
       </c>
-      <c r="AK11" s="14">
+      <c r="AK11" s="13">
         <v>102.0</v>
       </c>
-      <c r="AL11" s="14">
+      <c r="AL11" s="13">
         <v>103.0</v>
       </c>
-      <c r="AM11" s="14">
+      <c r="AM11" s="13">
         <v>129.0</v>
       </c>
-      <c r="AN11" s="14">
+      <c r="AN11" s="13">
         <v>81.0</v>
       </c>
-      <c r="AO11" s="14">
+      <c r="AO11" s="13">
         <v>78.0</v>
       </c>
-      <c r="AP11" s="14">
+      <c r="AP11" s="13">
         <v>61.0</v>
       </c>
-      <c r="AQ11" s="14">
+      <c r="AQ11" s="13">
         <v>87.0</v>
       </c>
-      <c r="AR11" s="15">
+      <c r="AR11" s="14">
         <v>3037.0</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>53.0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>58.0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>52.0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>50.0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>46.0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>45.0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>49.0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>51.0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>52.0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>51.0</v>
+      </c>
+      <c r="P12" s="15">
+        <v>52.0</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>53.0</v>
+      </c>
+      <c r="R12" s="15">
+        <v>55.0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>56.0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>55.0</v>
+      </c>
+      <c r="U12" s="15">
+        <v>53.0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>51.0</v>
+      </c>
+      <c r="W12" s="15">
+        <v>47.0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>43.0</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>42.0</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>39.0</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>38.0</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>37.0</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>37.0</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>36.0</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>34.0</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>38.0</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>159.0</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>172.0</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>141.0</v>
+      </c>
+      <c r="AJ12" s="15">
+        <v>148.0</v>
+      </c>
+      <c r="AK12" s="15">
+        <v>121.0</v>
+      </c>
+      <c r="AL12" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="AM12" s="15">
+        <v>75.0</v>
+      </c>
+      <c r="AN12" s="15">
+        <v>76.0</v>
+      </c>
+      <c r="AO12" s="15">
+        <v>57.0</v>
+      </c>
+      <c r="AP12" s="15">
+        <v>29.0</v>
+      </c>
+      <c r="AQ12" s="15">
+        <v>35.0</v>
+      </c>
+      <c r="AR12" s="16">
+        <v>2505.0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13">
+        <v>64.0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>54.0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>51.0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>52.0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>52.0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>54.0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>55.0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>58.0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>61.0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>61.0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>61.0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>58.0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>56.0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>53.0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>49.0</v>
+      </c>
+      <c r="R13" s="13">
+        <v>48.0</v>
+      </c>
+      <c r="S13" s="13">
+        <v>45.0</v>
+      </c>
+      <c r="T13" s="13">
+        <v>41.0</v>
+      </c>
+      <c r="U13" s="13">
+        <v>37.0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>34.0</v>
+      </c>
+      <c r="W13" s="13">
+        <v>33.0</v>
+      </c>
+      <c r="X13" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>31.0</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>33.0</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>31.0</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>162.0</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>165.0</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>151.0</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>133.0</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>95.0</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>85.0</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>90.0</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>87.0</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>77.0</v>
+      </c>
+      <c r="AP13" s="13">
+        <v>77.0</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>54.0</v>
+      </c>
+      <c r="AR13" s="14">
+        <v>2520.0</v>
+      </c>
+    </row>
     <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
@@ -3617,423 +3978,1846 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>57</v>
+      <c r="E1" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="30">
+      <c r="A2" s="49">
         <v>2013.0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="51">
         <v>4.95</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="51">
         <v>2.24</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="51">
         <v>7.23</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="51">
         <v>4.29</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="30">
+      <c r="A3" s="52">
         <v>2013.0</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="54">
         <v>10.0</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="54">
         <v>1.52</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="54">
         <v>7.09</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="54">
         <v>4.26</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="30">
+      <c r="A4" s="49">
         <v>2014.0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="51">
         <v>7.56</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="51">
         <v>1.86</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="51">
         <v>4.15</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="51">
         <v>3.4</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="30">
+      <c r="A5" s="52">
         <v>2014.0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="54">
         <v>5.77</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="54">
         <v>1.09</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="54">
         <v>5.57</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="54">
         <v>3.18</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="30">
+      <c r="A6" s="49">
         <v>2015.0</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="51">
         <v>1.63</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="51">
         <v>1.04</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="51">
         <v>2.74</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="51">
         <v>1.76</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="30">
+      <c r="A7" s="52">
         <v>2015.0</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="54">
         <v>0.0</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="54">
         <v>0.92</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="54">
         <v>2.67</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="54">
         <v>1.42</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="49">
         <v>2016.0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="51">
         <v>3.82</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="51">
         <v>2.47</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="51">
         <v>6.22</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="51">
         <v>4.05</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="30">
+      <c r="A9" s="52">
         <v>2016.0</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="54">
         <v>5.6</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="54">
         <v>2.45</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="54">
         <v>3.63</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="54">
         <v>3.36</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="49">
         <v>2017.0</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="51">
         <v>3.31</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="51">
         <v>1.01</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="51">
         <v>4.19</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="51">
         <v>2.51</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="30">
+      <c r="A11" s="52">
         <v>2017.0</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="54">
         <v>4.2</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="54">
         <v>1.75</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="54">
         <v>4.26</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="54">
         <v>3.13</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="26">
+      <c r="A12" s="55">
         <v>2018.0</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="51">
         <v>5.07</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="51">
         <v>1.27</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="51">
         <v>4.85</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="51">
         <v>3.2</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="26">
+      <c r="A13" s="56">
         <v>2018.0</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="54">
         <v>3.4</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="54">
         <v>0.52</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="54">
         <v>2.82</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="54">
         <v>1.92</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="26">
+      <c r="A14" s="55">
         <v>2019.0</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="51">
         <v>3.28</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="51">
         <v>1.77</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="51">
         <v>4.98</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="51">
         <v>3.28</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="26">
+      <c r="A15" s="56">
         <v>2019.0</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="54">
         <v>3.82</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="54">
         <v>0.47</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="54">
         <v>2.9</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="54">
         <v>1.89</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26">
+      <c r="A16" s="55">
         <v>2021.0</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="51">
         <v>1.55</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="51">
         <v>1.07</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="51">
         <v>7.36</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="51">
         <v>3.64</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26">
+      <c r="A17" s="56">
         <v>2021.0</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="54">
         <v>0.65</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="54">
         <v>0.0</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="54">
         <v>2.86</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="54">
         <v>1.14</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="26">
+      <c r="A18" s="55">
         <v>2022.0</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="51">
         <v>2.26</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="51">
         <v>1.06</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="51">
         <v>4.11</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="51">
         <v>2.42</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="26">
+      <c r="A19" s="56">
         <v>2022.0</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="54">
         <v>1.53</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="54">
         <v>0.81</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="54">
         <v>3.24</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="54">
         <v>1.76</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="26">
+      <c r="A20" s="55">
         <v>2023.0</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="51">
         <v>0.96</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="51">
         <v>2.26</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="51">
         <v>7.59</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="51">
         <v>4.26</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="26">
+      <c r="A21" s="56">
         <v>2023.0</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="54">
         <v>0.0</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="54">
         <v>2.05</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="54">
         <v>1.98</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="54">
         <v>1.86</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="36">
+        <v>2013.0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="46">
+        <v>14.46</v>
+      </c>
+      <c r="D2" s="46">
+        <v>2.08</v>
+      </c>
+      <c r="E2" s="46">
+        <v>10.24</v>
+      </c>
+      <c r="F2" s="46">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="38">
+        <v>2013.0</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="47">
+        <v>3.64</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0.31</v>
+      </c>
+      <c r="E3" s="47">
+        <v>4.72</v>
+      </c>
+      <c r="F3" s="47">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="36">
+        <v>2014.0</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="46">
+        <v>3.75</v>
+      </c>
+      <c r="D4" s="46">
+        <v>1.87</v>
+      </c>
+      <c r="E4" s="46">
+        <v>10.48</v>
+      </c>
+      <c r="F4" s="46">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="38">
+        <v>2014.0</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="47">
+        <v>1.43</v>
+      </c>
+      <c r="D5" s="47">
+        <v>2.36</v>
+      </c>
+      <c r="E5" s="47">
+        <v>3.95</v>
+      </c>
+      <c r="F5" s="47">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="36">
+        <v>2015.0</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="46">
+        <v>3.41</v>
+      </c>
+      <c r="D6" s="46">
+        <v>1.11</v>
+      </c>
+      <c r="E6" s="46">
+        <v>5.38</v>
+      </c>
+      <c r="F6" s="46">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="38">
+        <v>2015.0</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="47">
+        <v>3.9</v>
+      </c>
+      <c r="D7" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="47">
+        <v>6.97</v>
+      </c>
+      <c r="F7" s="47">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="36">
+        <v>2016.0</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="46">
+        <v>9.57</v>
+      </c>
+      <c r="D8" s="46">
+        <v>3.8</v>
+      </c>
+      <c r="E8" s="46">
+        <v>9.13</v>
+      </c>
+      <c r="F8" s="46">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="38">
+        <v>2016.0</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="47">
+        <v>7.07</v>
+      </c>
+      <c r="D9" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="47">
+        <v>4.6</v>
+      </c>
+      <c r="F9" s="47">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="36">
+        <v>2017.0</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="46">
+        <v>3.03</v>
+      </c>
+      <c r="D10" s="46">
+        <v>5.07</v>
+      </c>
+      <c r="E10" s="46">
+        <v>8.44</v>
+      </c>
+      <c r="F10" s="46">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="38">
+        <v>2017.0</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="47">
+        <v>3.85</v>
+      </c>
+      <c r="D11" s="47">
+        <v>2.38</v>
+      </c>
+      <c r="E11" s="47">
+        <v>5.37</v>
+      </c>
+      <c r="F11" s="47">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="36">
+        <v>2018.0</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="46">
+        <v>6.0</v>
+      </c>
+      <c r="D12" s="46">
+        <v>3.15</v>
+      </c>
+      <c r="E12" s="46">
+        <v>4.69</v>
+      </c>
+      <c r="F12" s="46">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="38">
+        <v>2018.0</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="47">
+        <v>2.63</v>
+      </c>
+      <c r="D13" s="47">
+        <v>0.78</v>
+      </c>
+      <c r="E13" s="47">
+        <v>5.26</v>
+      </c>
+      <c r="F13" s="47">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="36">
+        <v>2019.0</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="46">
+        <v>4.4</v>
+      </c>
+      <c r="D14" s="46">
+        <v>1.94</v>
+      </c>
+      <c r="E14" s="46">
+        <v>9.35</v>
+      </c>
+      <c r="F14" s="46">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="38">
+        <v>2019.0</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="47">
+        <v>4.6</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0.39</v>
+      </c>
+      <c r="E15" s="47">
+        <v>2.48</v>
+      </c>
+      <c r="F15" s="47">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="36">
+        <v>2021.0</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="46">
+        <v>1.12</v>
+      </c>
+      <c r="D16" s="46">
+        <v>1.9</v>
+      </c>
+      <c r="E16" s="46">
+        <v>3.7</v>
+      </c>
+      <c r="F16" s="46">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="38">
+        <v>2021.0</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0.35</v>
+      </c>
+      <c r="E17" s="47">
+        <v>4.44</v>
+      </c>
+      <c r="F17" s="47">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="36">
+        <v>2022.0</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="46">
+        <v>0.94</v>
+      </c>
+      <c r="E18" s="46">
+        <v>2.43</v>
+      </c>
+      <c r="F18" s="46">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="38">
+        <v>2022.0</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="47">
+        <v>1.15</v>
+      </c>
+      <c r="D19" s="47">
+        <v>1.33</v>
+      </c>
+      <c r="E19" s="47">
+        <v>3.39</v>
+      </c>
+      <c r="F19" s="47">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="36">
+        <v>2023.0</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="46">
+        <v>2.74</v>
+      </c>
+      <c r="D20" s="46">
+        <v>1.67</v>
+      </c>
+      <c r="E20" s="46">
+        <v>5.88</v>
+      </c>
+      <c r="F20" s="46">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="38">
+        <v>2023.0</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="47">
+        <v>2.67</v>
+      </c>
+      <c r="D21" s="47">
+        <v>0.71</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0.94</v>
+      </c>
+      <c r="F21" s="47">
+        <v>1.05</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1"/>
@@ -5041,27 +6825,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>54</v>
       </c>
+      <c r="D1" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="E1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="21" t="s">
         <v>56</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="23">
@@ -5076,32 +6860,32 @@
       <c r="E2" s="23">
         <v>1.6</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="24">
         <v>4.3</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="25">
         <v>62.2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="25">
         <v>2.1</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="25">
         <v>22.8</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="25">
         <v>0.3</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="26">
         <v>12.7</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="23">
@@ -5116,32 +6900,32 @@
       <c r="E4" s="23">
         <v>0.3</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="24">
         <v>0.7</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="25">
         <v>32.4</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="25">
         <v>0.6</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="25">
         <v>66.8</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="25">
         <v>0.1</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="26">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="23">
@@ -5156,16 +6940,29 @@
       <c r="E6" s="23">
         <v>0.2</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="24">
         <v>0.4</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="A7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="25">
+        <v>69.6</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1.1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>29.0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1"/>
@@ -6186,41 +7983,41 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>57</v>
+      <c r="D1" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="23">
         <v>98.5</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>96.3</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="24">
         <v>97.4</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>97.6</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>94.1</v>
       </c>
       <c r="D3" s="26">
@@ -6228,27 +8025,27 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="23">
         <v>98.3</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="23">
         <v>95.4</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>96.7</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>96.9</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>90.9</v>
       </c>
       <c r="D5" s="26">
@@ -6256,20 +8053,33 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="23">
         <v>94.4</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <v>90.3</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>92.6</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="25">
+        <v>94.1</v>
+      </c>
+      <c r="C7" s="25">
+        <v>92.7</v>
+      </c>
+      <c r="D7" s="26">
+        <v>93.4</v>
+      </c>
+    </row>
     <row r="8" ht="14.25" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -7294,39 +9104,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="21" t="s">
         <v>62</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>83.37</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>91.2</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>89.74</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="27">
         <v>36.06</v>
       </c>
       <c r="F2" s="28">
@@ -7334,39 +9144,39 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="29">
         <v>65.28</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="29">
         <v>71.7</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="29">
         <v>75.98</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="29">
         <v>22.2</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="30">
         <v>36.89</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>92.87</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>93.55</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>90.4</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>58.75</v>
       </c>
       <c r="F4" s="28">
@@ -7374,46 +9184,65 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="29">
         <v>35.69</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="29">
         <v>38.49</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <v>53.18</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="29">
         <v>0.38</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="30">
         <v>16.19</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>61.34</v>
       </c>
-      <c r="C6" s="29">
-        <v>59.94</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="C6" s="27">
+        <v>59.98</v>
+      </c>
+      <c r="D6" s="27">
         <v>57.98</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>7.94</v>
       </c>
       <c r="F6" s="28">
         <v>27.82</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="31">
+        <v>73.95</v>
+      </c>
+      <c r="C7" s="31">
+        <v>65.35</v>
+      </c>
+      <c r="D7" s="31">
+        <v>68.31</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.36</v>
+      </c>
+      <c r="F7" s="32">
+        <v>47.72</v>
+      </c>
+    </row>
     <row r="8" ht="14.25" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -8434,221 +10263,251 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="A1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>57</v>
+      <c r="J1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="36">
         <v>1983.0</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="36">
         <v>308071.0</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="36">
         <v>169274.0</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="36">
         <v>104077.0</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="36">
         <v>39954.0</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="36">
         <v>13316.0</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="36">
         <v>5012.0</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="36">
         <v>1637.0</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="36">
         <v>1530.0</v>
       </c>
-      <c r="K2" s="31">
-        <f t="shared" ref="K2:K6" si="1">SUM(B2:J2)</f>
-        <v>644854</v>
+      <c r="K2" s="36">
+        <v>644854.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="38">
         <v>55.0</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="38">
         <v>12334.0</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="38">
         <v>7833.0</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="38">
         <v>3742.0</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="38">
         <v>1285.0</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="38">
         <v>380.0</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="38">
         <v>145.0</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="38">
         <v>48.0</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="38">
         <v>60.0</v>
       </c>
-      <c r="K3" s="31">
-        <f t="shared" si="1"/>
-        <v>25882</v>
+      <c r="K3" s="38">
+        <v>25882.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="36">
         <v>16.0</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="36">
         <v>3399.0</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="36">
         <v>2449.0</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="36">
         <v>1517.0</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="36">
         <v>656.0</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="36">
         <v>224.0</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="36">
         <v>64.0</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="36">
         <v>31.0</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="36">
         <v>18.0</v>
       </c>
-      <c r="K4" s="31">
-        <f t="shared" si="1"/>
-        <v>8374</v>
+      <c r="K4" s="36">
+        <v>8374.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="38">
         <v>9.0</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="38">
         <v>1296.0</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="38">
         <v>742.0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="38">
         <v>263.0</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="38">
         <v>51.0</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="38">
         <v>16.0</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="38">
         <v>8.0</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="38">
         <v>2.0</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="38">
         <v>3.0</v>
       </c>
-      <c r="K5" s="31">
-        <f t="shared" si="1"/>
-        <v>2390</v>
+      <c r="K5" s="38">
+        <v>2390.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="36">
         <v>3.0</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="36">
         <v>525.0</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="36">
         <v>368.0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="36">
         <v>125.0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="36">
         <v>40.0</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="36">
         <v>8.0</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="36">
         <v>2.0</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="36">
         <v>0.0</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="36">
         <v>0.0</v>
       </c>
-      <c r="K6" s="31">
-        <f t="shared" si="1"/>
-        <v>1071</v>
+      <c r="K6" s="36">
+        <v>1071.0</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="40">
+        <v>501.0</v>
+      </c>
+      <c r="D7" s="40">
+        <v>384.0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>138.0</v>
+      </c>
+      <c r="F7" s="40">
+        <v>54.0</v>
+      </c>
+      <c r="G7" s="40">
+        <v>23.0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="I7" s="40">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>4.0</v>
+      </c>
+      <c r="K7" s="40">
+        <f>SUM(B7:J7)</f>
+        <v>1117</v>
+      </c>
+    </row>
     <row r="8" ht="14.25" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
@@ -9669,482 +11528,482 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="26">
+      <c r="A2" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="41">
         <v>185986.0</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="41">
         <v>17596.0</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="41">
         <v>892.0</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="41">
         <v>2190.0</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="41">
         <v>1079.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="26">
+      <c r="A3" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="41">
         <v>10787.0</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="41">
         <v>872.0</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="41">
         <v>386.0</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="41">
         <v>36.0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="41">
         <v>36.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="26">
+      <c r="A4" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="41">
         <v>121564.0</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="41">
         <v>2490.0</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="41">
         <v>949.0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="41">
         <v>123.0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="41">
         <v>68.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="26">
+      <c r="A5" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="41">
         <v>1599.0</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="41">
         <v>61.0</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="41">
         <v>17.0</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="41">
         <v>0.0</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="41">
         <v>5.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="A6" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="41">
         <v>1948.0</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="41">
         <v>58.0</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="41">
         <v>24.0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="41">
         <v>6.0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="41">
         <v>2.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="26">
+      <c r="A7" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="41">
         <v>110768.0</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="41">
         <v>3262.0</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="41">
         <v>1459.0</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="41">
         <v>169.0</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="41">
         <v>155.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="26">
+      <c r="A8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="41">
         <v>236183.0</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="41">
         <v>4879.0</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="41">
         <v>2556.0</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="41">
         <v>167.0</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="41">
         <v>104.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="A9" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="41">
         <v>83915.0</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="41">
         <v>1940.0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="41">
         <v>996.0</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="41">
         <v>59.0</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="41">
         <v>109.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="26">
+      <c r="A10" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="41">
         <v>64658.0</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="41">
         <v>1559.0</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="41">
         <v>712.0</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="41">
         <v>82.0</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="41">
         <v>62.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="A11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="41">
         <v>13786.0</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="41">
         <v>280.0</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="41">
         <v>201.0</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="41">
         <v>4.0</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="41">
         <v>10.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="26">
+      <c r="A12" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="41">
         <v>10354.0</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="41">
         <v>144.0</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="41">
         <v>115.0</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="41">
         <v>0.0</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="41">
         <v>0.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="26">
+      <c r="A13" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="41">
         <v>2404.0</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="41">
         <v>7.0</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="41">
         <v>4.0</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="41">
         <v>0.0</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="41">
         <v>0.0</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="26">
+      <c r="A14" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="41">
         <v>31686.0</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="41">
         <v>603.0</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="41">
         <v>323.0</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="41">
         <v>23.0</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="41">
         <v>26.0</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="26">
+      <c r="A15" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="41">
         <v>34238.0</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="41">
         <v>715.0</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="41">
         <v>390.0</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="41">
         <v>41.0</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="41">
         <v>25.0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="26">
+      <c r="A16" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="41">
         <v>20833.0</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="41">
         <v>790.0</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="41">
         <v>380.0</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="41">
         <v>27.0</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="41">
         <v>9.0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="26">
+      <c r="A17" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="41">
         <v>45958.0</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="41">
         <v>2387.0</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="41">
         <v>975.0</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="41">
         <v>243.0</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="41">
         <v>102.0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="26">
+      <c r="A18" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="41">
         <v>32491.0</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="41">
         <v>980.0</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="41">
         <v>513.0</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="41">
         <v>59.0</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="41">
         <v>36.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="26">
+      <c r="A19" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="41">
         <v>7391.0</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="41">
         <v>113.0</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="41">
         <v>80.0</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="41">
         <v>0.0</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="41">
         <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="26">
+      <c r="A20" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="41">
         <v>25767.0</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="41">
         <v>786.0</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="41">
         <v>364.0</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="41">
         <v>43.0</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="41">
         <v>26.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="26">
+      <c r="A21" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="41">
         <v>31580.0</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="41">
         <v>992.0</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="41">
         <v>409.0</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="41">
         <v>60.0</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="41">
         <v>43.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="26">
+      <c r="A22" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="41">
         <v>74.0</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="41">
         <v>1.0</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="41">
         <v>0.0</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="41">
         <v>1.0</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="41">
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="26">
+      <c r="A23" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="41">
         <v>144392.0</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="41">
         <v>6301.0</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="41">
         <v>1504.0</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="41">
         <v>614.0</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="41">
         <v>184.0</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="26">
+      <c r="A24" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="41">
         <v>1218362.0</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="41">
         <v>46816.0</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="41">
         <v>13249.0</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="41">
         <v>3947.0</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="41">
         <v>2082.0</v>
       </c>
     </row>
@@ -11149,233 +13008,291 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>57</v>
+      <c r="J1" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="36">
         <v>3828.0</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="36">
         <v>13.0</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="36">
         <v>2589.0</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="36">
         <v>199.0</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="36">
         <v>168.0</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="36">
         <v>48.0</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="36">
         <v>802.0</v>
       </c>
-      <c r="J2" s="30">
-        <f t="shared" ref="J2:J7" si="1">SUM(C2:I2)</f>
-        <v>7647</v>
+      <c r="J2" s="42">
+        <v>7647.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="38">
         <v>2077.0</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="38">
         <v>362.0</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="38">
         <v>2103.0</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="38">
         <v>116.0</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="38">
         <v>164.0</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="38">
         <v>31.0</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="38">
         <v>749.0</v>
       </c>
-      <c r="J3" s="30">
-        <f t="shared" si="1"/>
-        <v>5602</v>
+      <c r="J3" s="43">
+        <v>5602.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="36">
         <v>878.0</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="36">
         <v>2.0</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="36">
         <v>1112.0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="36">
         <v>44.0</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="36">
         <v>226.0</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="36">
         <v>9.0</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="36">
         <v>550.0</v>
       </c>
-      <c r="J4" s="30">
-        <f t="shared" si="1"/>
-        <v>2821</v>
+      <c r="J4" s="42">
+        <v>2821.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="38">
         <v>239.0</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="38">
         <v>45.0</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="38">
         <v>409.0</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="38">
         <v>14.0</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="38">
         <v>62.0</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="38">
         <v>1.0</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="38">
         <v>356.0</v>
       </c>
-      <c r="J5" s="30">
-        <f t="shared" si="1"/>
-        <v>1126</v>
+      <c r="J5" s="43">
+        <v>1126.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="36">
         <v>576.0</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="36">
         <v>1.0</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="36">
         <v>666.0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="36">
         <v>23.0</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="36">
         <v>48.0</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="36">
         <v>1.0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="36">
         <v>295.0</v>
       </c>
-      <c r="J6" s="30">
-        <f t="shared" si="1"/>
-        <v>1610</v>
+      <c r="J6" s="42">
+        <v>1610.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="43">
         <v>114.0</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="43">
         <v>36.0</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="43">
         <v>186.0</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="43">
         <v>10.0</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="43">
         <v>17.0</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="43">
         <v>1.0</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="43">
         <v>108.0</v>
       </c>
-      <c r="J7" s="30">
-        <f t="shared" si="1"/>
-        <v>472</v>
+      <c r="J7" s="43">
+        <v>472.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="42">
+        <v>451.0</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="42">
+        <v>479.0</v>
+      </c>
+      <c r="F8" s="42">
+        <v>28.0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>74.0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>3.0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>167.0</v>
+      </c>
+      <c r="J8" s="42">
+        <v>1202.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="38">
+        <v>192.0</v>
+      </c>
+      <c r="D9" s="38">
+        <v>59.0</v>
+      </c>
+      <c r="E9" s="38">
+        <v>210.0</v>
+      </c>
+      <c r="F9" s="38">
+        <v>12.0</v>
+      </c>
+      <c r="G9" s="38">
+        <v>20.0</v>
+      </c>
+      <c r="H9" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="38">
+        <v>133.0</v>
+      </c>
+      <c r="J9" s="38">
+        <v>628.0</v>
       </c>
     </row>
   </sheetData>
@@ -11400,422 +13317,422 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>57</v>
+      <c r="E1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="30">
+      <c r="A2" s="36">
         <v>2013.0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="46">
         <v>5.56</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="46">
         <v>1.23</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="46">
         <v>3.39</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="46">
         <v>2.63</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="30">
+      <c r="A3" s="38">
         <v>2013.0</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="47">
         <v>2.77</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="47">
         <v>1.47</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="47">
         <v>2.22</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="47">
         <v>1.95</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="30">
+      <c r="A4" s="36">
         <v>2014.0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="46">
         <v>2.91</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="46">
         <v>0.9</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="46">
         <v>4.84</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="46">
         <v>2.84</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="30">
+      <c r="A5" s="38">
         <v>2014.0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="47">
         <v>2.7</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="47">
         <v>0.44</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="47">
         <v>3.12</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="47">
         <v>1.93</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="30">
+      <c r="A6" s="36">
         <v>2015.0</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="46">
         <v>4.36</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="46">
         <v>1.81</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="46">
         <v>5.38</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="46">
         <v>3.69</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="30">
+      <c r="A7" s="38">
         <v>2015.0</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="47">
         <v>4.61</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="47">
         <v>1.07</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="47">
         <v>3.91</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="47">
         <v>2.85</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="36">
         <v>2016.0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="46">
         <v>4.78</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="46">
         <v>2.38</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="46">
         <v>5.67</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="46">
         <v>4.18</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="30">
+      <c r="A9" s="38">
         <v>2016.0</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="47">
         <v>2.3</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="47">
         <v>0.74</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="47">
         <v>4.35</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="47">
         <v>2.72</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="36">
         <v>2017.0</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="46">
         <v>2.66</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="46">
         <v>1.66</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="46">
         <v>5.22</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="46">
         <v>3.41</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="30">
+      <c r="A11" s="38">
         <v>2017.0</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="47">
         <v>2.81</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="47">
         <v>0.95</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="47">
         <v>3.58</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="47">
         <v>2.39</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="26">
+      <c r="A12" s="36">
         <v>2018.0</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="46">
         <v>3.94</v>
       </c>
-      <c r="D12" s="28">
-        <v>1.711</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="D12" s="46">
+        <v>1.71</v>
+      </c>
+      <c r="E12" s="46">
         <v>4.68</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="46">
         <v>3.35</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="26">
+      <c r="A13" s="38">
         <v>2018.0</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="47">
         <v>3.12</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="47">
         <v>1.29</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="47">
         <v>3.61</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="47">
         <v>2.57</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="26">
+      <c r="A14" s="36">
         <v>2019.0</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="46">
         <v>4.89</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="46">
         <v>1.49</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="46">
         <v>5.29</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="46">
         <v>3.62</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="26">
+      <c r="A15" s="38">
         <v>2019.0</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="47">
         <v>2.82</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="47">
         <v>1.12</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="47">
         <v>3.25</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="47">
         <v>2.29</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26">
+      <c r="A16" s="36">
         <v>2021.0</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="46">
         <v>0.59</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="46">
         <v>1.29</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="46">
         <v>4.97</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="46">
         <v>2.72</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26">
+      <c r="A17" s="38">
         <v>2021.0</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="47">
         <v>0.0</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="47">
         <v>0.88</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="47">
         <v>3.15</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="47">
         <v>1.68</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="26">
+      <c r="A18" s="36">
         <v>2022.0</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="46">
         <v>1.83</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="46">
         <v>1.48</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="46">
         <v>2.7</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="46">
         <v>2.01</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="26">
+      <c r="A19" s="38">
         <v>2022.0</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="47">
         <v>0.63</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="47">
         <v>0.97</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="47">
         <v>1.92</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="47">
         <v>1.32</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="26">
+      <c r="A20" s="36">
         <v>2023.0</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="46">
         <v>2.57</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="46">
         <v>0.92</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="46">
         <v>2.44</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="46">
         <v>1.74</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="26">
+      <c r="A21" s="38">
         <v>2023.0</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="47">
         <v>1.43</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="47">
         <v>0.65</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="47">
         <v>1.74</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="47">
         <v>1.15</v>
       </c>
     </row>
@@ -12823,422 +14740,422 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>57</v>
+      <c r="E1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="30">
+      <c r="A2" s="36">
         <v>2013.0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="46">
         <v>7.34</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="46">
         <v>2.26</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="46">
         <v>7.86</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="46">
         <v>4.63</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="30">
+      <c r="A3" s="38">
         <v>2013.0</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="47">
         <v>6.38</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="47">
         <v>1.5</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="47">
         <v>5.52</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="47">
         <v>3.31</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="30">
+      <c r="A4" s="36">
         <v>2014.0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="46">
         <v>2.27</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="46">
         <v>1.88</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="46">
         <v>5.63</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="46">
         <v>3.2</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="30">
+      <c r="A5" s="38">
         <v>2014.0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="47">
         <v>1.16</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="47">
         <v>1.5</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="47">
         <v>4.21</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="47">
         <v>2.39</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="30">
+      <c r="A6" s="36">
         <v>2015.0</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="46">
         <v>6.41</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="46">
         <v>2.25</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="46">
         <v>4.07</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="46">
         <v>3.33</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="30">
+      <c r="A7" s="38">
         <v>2015.0</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="47">
         <v>1.19</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="47">
         <v>2.76</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="47">
         <v>4.02</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="47">
         <v>3.03</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="36">
         <v>2016.0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="46">
         <v>9.8</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="46">
         <v>2.1</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="46">
         <v>3.84</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="46">
         <v>3.58</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="30">
+      <c r="A9" s="38">
         <v>2016.0</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="47">
         <v>4.26</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="47">
         <v>1.19</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="47">
         <v>4.05</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="47">
         <v>2.64</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="36">
         <v>2017.0</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="46">
         <v>5.65</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="46">
         <v>2.49</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="46">
         <v>3.88</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="46">
         <v>3.35</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="30">
+      <c r="A11" s="38">
         <v>2017.0</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="47">
         <v>2.59</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="47">
         <v>1.59</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="47">
         <v>4.66</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="47">
         <v>2.84</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="26">
+      <c r="A12" s="36">
         <v>2018.0</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="46">
         <v>1.82</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="46">
         <v>1.31</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="46">
         <v>5.04</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="46">
         <v>2.74</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="26">
+      <c r="A13" s="38">
         <v>2018.0</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="47">
         <v>5.15</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="47">
         <v>0.51</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="47">
         <v>3.08</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="47">
         <v>1.99</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="26">
+      <c r="A14" s="36">
         <v>2019.0</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="46">
         <v>2.55</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="46">
         <v>1.06</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="46">
         <v>4.46</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="46">
         <v>2.5</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="26">
+      <c r="A15" s="38">
         <v>2019.0</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="47">
         <v>1.08</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="47">
         <v>1.11</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="47">
         <v>5.67</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="47">
         <v>2.74</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="26">
+      <c r="A16" s="36">
         <v>2021.0</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="46">
         <v>0.37</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="46">
         <v>1.29</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="46">
         <v>2.13</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="46">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="26">
+      <c r="A17" s="38">
         <v>2021.0</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="47">
         <v>1.08</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="47">
         <v>0.5</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="47">
         <v>1.97</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="47">
         <v>1.1</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="26">
+      <c r="A18" s="36">
         <v>2022.0</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="46">
         <v>0.69</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="46">
         <v>0.95</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="46">
         <v>3.6</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="46">
         <v>1.93</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="26">
+      <c r="A19" s="38">
         <v>2022.0</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="47">
         <v>1.93</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="47">
         <v>1.19</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="47">
         <v>2.75</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="47">
         <v>1.85</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="26">
+      <c r="A20" s="36">
         <v>2023.0</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="46">
         <v>1.08</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="46">
         <v>0.73</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="46">
         <v>5.14</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="46">
         <v>2.49</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="26">
+      <c r="A21" s="38">
         <v>2023.0</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="47">
         <v>0.41</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="47">
         <v>0.91</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="47">
         <v>3.0</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="47">
         <v>1.65</v>
       </c>
     </row>
